--- a/scripts/serina/more_example_apps/nitrogen_cmpnd_app/data/Compounds_complete.xlsx
+++ b/scripts/serina/more_example_apps/nitrogen_cmpnd_app/data/Compounds_complete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/University_of_Minnesota/Wackett_Lab/github/urea-pathways/ureadb/live/data/urls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tabie\OneDrive\Documents\GitHub\TARA-thiolases\scripts\serina\more_example_apps\nitrogen_cmpnd_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52F2A9EF-6F99-B34B-AD55-8AF8667AB413}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB6028D-4FA6-48A5-8BAB-6737BD09432E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compounds_complete" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t xml:space="preserve"> NC(N)=O</t>
   </si>
   <si>
-    <t xml:space="preserve"> Aquadrate; Carbamide; Carbamimidic acid; Carbonyl diamide; Carbonyldiamine; Isourea; Ureaphil; Ureophil</t>
-  </si>
-  <si>
     <t>CAS Reg. 57-13-6</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t xml:space="preserve"> NC(=O)NC([O-])=O</t>
   </si>
   <si>
-    <t xml:space="preserve"> allophanic acid; urea-1-carboxylate</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t xml:space="preserve"> NC#N</t>
   </si>
   <si>
-    <t xml:space="preserve"> amidocyanogen; Carbamonitrile; Carbimide; Carbodiamide; carbodiimide; Cyanogenamide; Dormex; hydrogen cyanamide</t>
-  </si>
-  <si>
     <t>CAS Reg. 420-04-2</t>
   </si>
   <si>
@@ -118,9 +109,6 @@
     <t xml:space="preserve"> NC(=O)NC(N)=O</t>
   </si>
   <si>
-    <t xml:space="preserve"> Allophanamide; Carbamylurea; Imidodicarbonic diamide</t>
-  </si>
-  <si>
     <t>CAS Reg. 108-19-0</t>
   </si>
   <si>
@@ -139,9 +127,6 @@
     <t xml:space="preserve"> Oc1nc(O)nc(O)n1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1,3,5-Triazine-2,4,6(1H,3H,5H)-trione; 1,3,5-Triazine-2,4,6-triol; 2,4,6-Trihydroxy-1,3,5-triazine; Isocyanuric acid; Normal cyanuric acid; Pseudocyanuric acid; sym-triazine-2,4,6-triol; sym-triazinetriol; Triazine-2,4,6(1H,3H,5H)-trione; Triazine-2,4,6-triol; Triazinetriol; Triazinetrione; Tricarbimide; Tricyanic acid; Trihydroxy-1,3,5-triazine; Trihydroxycyanidine</t>
-  </si>
-  <si>
     <t>CAS Reg. 108-80-5</t>
   </si>
   <si>
@@ -149,12 +134,27 @@
   </si>
   <si>
     <t>http://eawag-bbd.ethz.ch/servlets/pageservlet?ptype=r&amp;reacID=r0116</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aquadrate; Carbamide; Carbamimidic acid; Carbonyl diamide; Carbonyldiamine; Isourea; Ureaphil; Ureophil, Urea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> allophanic acid; urea-1-carboxylate, Allophanate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amidocyanogen; Carbamonitrile; Carbimide; Carbodiamide; carbodiimide; Cyanogenamide; Dormex; hydrogen cyanamide, Cyanamide</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allophanamide; Carbamylurea; Imidodicarbonic diamide, Biuret</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,3,5-Triazine-2,4,6(1H,3H,5H)-trione; 1,3,5-Triazine-2,4,6-triol; 2,4,6-Trihydroxy-1,3,5-triazine; Isocyanuric acid; Normal cyanuric acid; Pseudocyanuric acid; sym-triazine-2,4,6-triol; sym-triazinetriol; Triazine-2,4,6(1H,3H,5H)-trione; Triazine-2,4,6-triol; Triazinetriol; Triazinetrione; Tricarbimide; Tricyanic acid; Trihydroxy-1,3,5-triazine; Trihydroxycyanidine, Cyanuric acid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -988,14 +988,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1035,120 +1037,120 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
       <c r="C3">
         <v>103.06</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
       </c>
       <c r="C4">
         <v>42.04</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B5" t="s">
         <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
       </c>
       <c r="C5">
         <v>103.08</v>
       </c>
       <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B6" t="s">
         <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
       </c>
       <c r="C6">
         <v>129.08000000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
